--- a/data/trans_dic/P19C05-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.149966852172821</v>
+        <v>0.1526155575066691</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1199203550483759</v>
+        <v>0.1225891296056181</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07268209039375777</v>
+        <v>0.07173042172140688</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04880703645310404</v>
+        <v>0.05209832074336614</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1885409722672555</v>
+        <v>0.1903607150729562</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.147216383405142</v>
+        <v>0.1470127080022977</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08206813450377783</v>
+        <v>0.083322213365058</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1091038370274409</v>
+        <v>0.1093523057466799</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.183218050967261</v>
+        <v>0.1857287566735208</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1425148254392237</v>
+        <v>0.1409854765026261</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0826667232527097</v>
+        <v>0.08316004498292298</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08994373436766742</v>
+        <v>0.0904295762177186</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2295965733297962</v>
+        <v>0.2274648299666271</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1739052576508436</v>
+        <v>0.1745143951500997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1147046463729736</v>
+        <v>0.1142249899596168</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09367469376402898</v>
+        <v>0.09495142479150558</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2499036504733647</v>
+        <v>0.2492930903790486</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1981544471641055</v>
+        <v>0.1989840282958378</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1262246197819419</v>
+        <v>0.1261637942389292</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1522926687451468</v>
+        <v>0.1550999759724885</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2305844981442373</v>
+        <v>0.2348875234566956</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1793199845031971</v>
+        <v>0.1784084318540722</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1133648542572625</v>
+        <v>0.1125043392949601</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1207052669346473</v>
+        <v>0.123355331739951</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1170225196477326</v>
+        <v>0.1139023687417104</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1104736036466758</v>
+        <v>0.1106432210484404</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09427783383264751</v>
+        <v>0.09473633043297913</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08715081609402053</v>
+        <v>0.08680494648258946</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1285809044081469</v>
+        <v>0.1291536715156191</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1691568962245348</v>
+        <v>0.1697668219842641</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09943317980559664</v>
+        <v>0.1013252440957212</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1017599233755851</v>
+        <v>0.1006653477871401</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1272319543560768</v>
+        <v>0.1278086441094118</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1511423860422342</v>
+        <v>0.1496856298379241</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.10303908967869</v>
+        <v>0.1027487128495077</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0977138171787839</v>
+        <v>0.09971861464523826</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1655544341077958</v>
+        <v>0.1652406758254455</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1595722139275193</v>
+        <v>0.1599907032332245</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1455516745698922</v>
+        <v>0.144540275808271</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1237175640756627</v>
+        <v>0.1244284545747686</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1786386315202765</v>
+        <v>0.1781102740433645</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2248256112215608</v>
+        <v>0.2265056183510457</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1500880762592004</v>
+        <v>0.1468385162775405</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.132085051026321</v>
+        <v>0.1314877264711226</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1627741292485241</v>
+        <v>0.1633792818500053</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1877762573248435</v>
+        <v>0.1862024943108531</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1375674216878443</v>
+        <v>0.1376590242958377</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1233737466435216</v>
+        <v>0.12357438035636</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09568399767056862</v>
+        <v>0.09606984279311813</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1447412386610893</v>
+        <v>0.1445064262564239</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08468772529478652</v>
+        <v>0.08420131097910544</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09217611229557816</v>
+        <v>0.09136240092917119</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1106685459266434</v>
+        <v>0.1125348283855823</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1663655136337938</v>
+        <v>0.1680632875027887</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09278712826566238</v>
+        <v>0.09284291591267863</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1015445119296706</v>
+        <v>0.1009170978230271</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1096896846257575</v>
+        <v>0.1092495161397257</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.164903476419152</v>
+        <v>0.1645128481622422</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.093322602532194</v>
+        <v>0.094358586389025</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1000426752763452</v>
+        <v>0.1001749430353482</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1373089120783614</v>
+        <v>0.1392404813190846</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2018629515404886</v>
+        <v>0.1992693286333636</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.131972170230937</v>
+        <v>0.1295226925478586</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.130158506788528</v>
+        <v>0.1279896618204155</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1600760966147392</v>
+        <v>0.1610467356156046</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2257001685862797</v>
+        <v>0.2262380223726664</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.146131402366825</v>
+        <v>0.1463822676851392</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1339493029685436</v>
+        <v>0.1342794434019624</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1422387022021884</v>
+        <v>0.1409536150964208</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2036429259634268</v>
+        <v>0.2051495338446406</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.12817722991129</v>
+        <v>0.1289093769600572</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1248797629029996</v>
+        <v>0.1249349730542412</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1204678010624926</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1206513713658331</v>
+        <v>0.1206513713658332</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08691306986859949</v>
+        <v>0.0871864065386197</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1132580537978008</v>
+        <v>0.1166260547204818</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08400923800273898</v>
+        <v>0.08141363068831504</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09682118217875073</v>
+        <v>0.09819071254530605</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08331296468107202</v>
+        <v>0.08867624289131698</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1170302755230076</v>
+        <v>0.1185128904695707</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09940628173445544</v>
+        <v>0.09764877263727031</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1084065077328501</v>
+        <v>0.1063650465920736</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09644581114404428</v>
+        <v>0.09756188616962744</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1245220111148422</v>
+        <v>0.124652662318004</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.099277666024112</v>
+        <v>0.09904002781972164</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1061478375388161</v>
+        <v>0.1064818407474343</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1623493433919141</v>
+        <v>0.1607223439261684</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1809555004096807</v>
+        <v>0.186166619155401</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1469736307668234</v>
+        <v>0.144311963562731</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1363096981736633</v>
+        <v>0.1412604028756941</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1622480242345327</v>
+        <v>0.1696615833119777</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1947766713582511</v>
+        <v>0.1967507233923729</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1708043845512738</v>
+        <v>0.1699266669315881</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1418860501190218</v>
+        <v>0.1411564017735747</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1476784329847976</v>
+        <v>0.1515899054739786</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.177328085636363</v>
+        <v>0.1745486413239586</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1451448995620024</v>
+        <v>0.1452370561285201</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1331437427234116</v>
+        <v>0.1336986624239492</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1222212467656501</v>
+        <v>0.1217680282182847</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1355397585131843</v>
+        <v>0.1363304500661594</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.091418330295868</v>
+        <v>0.09234704616058205</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09540203511162682</v>
+        <v>0.09379840490157998</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1484759046264519</v>
+        <v>0.1482556829296289</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1679696686807151</v>
+        <v>0.1686532037471694</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1043845557982929</v>
+        <v>0.1036266795906789</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1109074483590546</v>
+        <v>0.1127593059755471</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1394425332979332</v>
+        <v>0.1376778343384068</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1555390700834194</v>
+        <v>0.1577304659274218</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1019665182398624</v>
+        <v>0.1018062372426116</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.106244516987669</v>
+        <v>0.1064213616391599</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1484456733775641</v>
+        <v>0.1500738976388408</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1633579716633542</v>
+        <v>0.1639984278369482</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1169186297336882</v>
+        <v>0.1173417399292251</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1154120149235947</v>
+        <v>0.1146324613603817</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1761447448890488</v>
+        <v>0.1746788429581189</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1973301101358245</v>
+        <v>0.1973800910300473</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1291703822711518</v>
+        <v>0.129201556934445</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1289613168343119</v>
+        <v>0.1288379687333911</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1585043782175969</v>
+        <v>0.1584306429755566</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1763829239874666</v>
+        <v>0.1769922046938095</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1191886079870186</v>
+        <v>0.1191464592688404</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1191614222924419</v>
+        <v>0.1202007214814588</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>59374</v>
+        <v>60423</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>98981</v>
+        <v>101184</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>57009</v>
+        <v>56263</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>22075</v>
+        <v>23563</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>137749</v>
+        <v>139079</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>139483</v>
+        <v>139290</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>75725</v>
+        <v>76883</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>64283</v>
+        <v>64430</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>206399</v>
+        <v>209227</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>252659</v>
+        <v>249948</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>141118</v>
+        <v>141961</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>93674</v>
+        <v>94180</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>90901</v>
+        <v>90057</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>143540</v>
+        <v>144043</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>89970</v>
+        <v>89594</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42368</v>
+        <v>42945</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>182581</v>
+        <v>182135</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>187745</v>
+        <v>188531</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>116469</v>
+        <v>116413</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>89730</v>
+        <v>91384</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>259758</v>
+        <v>264606</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>317909</v>
+        <v>316293</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>193523</v>
+        <v>192054</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>125712</v>
+        <v>128472</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>93516</v>
+        <v>91022</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>92883</v>
+        <v>93026</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>67344</v>
+        <v>67672</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>80281</v>
+        <v>79962</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>109287</v>
+        <v>109773</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>162859</v>
+        <v>163446</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>83791</v>
+        <v>85385</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>110626</v>
+        <v>109436</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>209814</v>
+        <v>210765</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>272591</v>
+        <v>269964</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>160432</v>
+        <v>159980</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>196238</v>
+        <v>200264</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>132299</v>
+        <v>132048</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>134164</v>
+        <v>134516</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>103970</v>
+        <v>103248</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>113965</v>
+        <v>114620</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>151833</v>
+        <v>151384</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>216455</v>
+        <v>218072</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>126477</v>
+        <v>123738</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>143593</v>
+        <v>142944</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>268426</v>
+        <v>269424</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>338662</v>
+        <v>335824</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>214192</v>
+        <v>214335</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>247771</v>
+        <v>248174</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>85306</v>
+        <v>85650</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>112866</v>
+        <v>112683</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>60644</v>
+        <v>60296</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>94473</v>
+        <v>93639</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>91813</v>
+        <v>93362</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>134107</v>
+        <v>135475</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>61144</v>
+        <v>61181</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>104601</v>
+        <v>103955</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>188794</v>
+        <v>188037</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>261516</v>
+        <v>260897</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>128324</v>
+        <v>129749</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>205590</v>
+        <v>205862</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>122417</v>
+        <v>124139</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>157408</v>
+        <v>155386</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>94504</v>
+        <v>92750</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>133402</v>
+        <v>131179</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>132803</v>
+        <v>133608</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>181936</v>
+        <v>182370</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>96296</v>
+        <v>96461</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>137982</v>
+        <v>138322</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>244816</v>
+        <v>242605</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>322952</v>
+        <v>325342</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>176251</v>
+        <v>177258</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>256631</v>
+        <v>256744</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>29547</v>
+        <v>29640</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>51442</v>
+        <v>52971</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>36103</v>
+        <v>34988</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>91980</v>
+        <v>93281</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>23213</v>
+        <v>24707</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>48621</v>
+        <v>49237</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>42879</v>
+        <v>42121</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>95479</v>
+        <v>93681</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>59660</v>
+        <v>60350</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>108291</v>
+        <v>108405</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>85489</v>
+        <v>85284</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>194330</v>
+        <v>194941</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>55193</v>
+        <v>54639</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>82190</v>
+        <v>84557</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>63163</v>
+        <v>62019</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>129494</v>
+        <v>134197</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>45206</v>
+        <v>47271</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>80921</v>
+        <v>81741</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>73677</v>
+        <v>73298</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>124966</v>
+        <v>124323</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>91352</v>
+        <v>93771</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>154214</v>
+        <v>151797</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>124985</v>
+        <v>125065</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>243752</v>
+        <v>244768</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>296575</v>
+        <v>295475</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>393084</v>
+        <v>395377</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>241758</v>
+        <v>244214</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>319441</v>
+        <v>314072</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>399221</v>
+        <v>398629</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>526046</v>
+        <v>528186</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>298093</v>
+        <v>295928</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>397844</v>
+        <v>404487</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>713296</v>
+        <v>704269</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>938201</v>
+        <v>951419</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>560841</v>
+        <v>559959</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>736863</v>
+        <v>738090</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>360210</v>
+        <v>364161</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>473761</v>
+        <v>475618</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>309194</v>
+        <v>310313</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>386442</v>
+        <v>383832</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>473617</v>
+        <v>469676</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>617996</v>
+        <v>618153</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>368874</v>
+        <v>368963</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>462606</v>
+        <v>462164</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>810804</v>
+        <v>810427</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1063929</v>
+        <v>1067605</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>655566</v>
+        <v>655334</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>826449</v>
+        <v>833657</v>
       </c>
     </row>
     <row r="24">
